--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73D74B-75C1-4FD6-AA76-BB6B6222D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40645A5E-34EF-4FE5-A287-6EC3DCD305E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="435" windowWidth="24990" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
+    <sheet name="Element &amp; Print" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -351,6 +352,712 @@
         <charset val="128"/>
       </rPr>
       <t>u thành công</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>        arrMulti[1][2]      = 7;    </t>
+  </si>
+  <si>
+    <t>        // Dòng 2 Cột 1</t>
+  </si>
+  <si>
+    <t>        System.out.println("Dòng 2 Cột 1: " + arrMulti[1][0]);</t>
+  </si>
+  <si>
+    <t>        System.out.println("Dòng 1 Cột 3: " + arrMulti[0][2]);</t>
+  </si>
+  <si>
+    <r>
+      <t>In ra 1 ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nào đó c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import java.util.Arrays;</t>
+  </si>
+  <si>
+    <t>public static void main(String[] args) {</t>
+  </si>
+  <si>
+    <t>study002();</t>
+  </si>
+  <si>
+    <t>// Truy cập và in mảng đa chiều</t>
+  </si>
+  <si>
+    <t>public static void study002(){</t>
+  </si>
+  <si>
+    <t>// 2 9 1</t>
+  </si>
+  <si>
+    <t>// 3 6 7</t>
+  </si>
+  <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>arrMulti</t>
+  </si>
+  <si>
+    <t>= {{2, 9, 1},{3, 6, 7}};</t>
+  </si>
+  <si>
+    <t>// Dòng 2 Cột 1</t>
+  </si>
+  <si>
+    <t>System.out.println("So phan tu cua mang(So hang): " + arrMulti.length);</t>
+  </si>
+  <si>
+    <t>System.out.println("Dòng 2 Cột 1: " + arrMulti[1][0]);</t>
+  </si>
+  <si>
+    <t>System.out.println("Dòng 1 Cột 3: " + arrMulti[0][2]);</t>
+  </si>
+  <si>
+    <t>System.out.println("So phan tu cua hang 1(So cot): " + arrMulti[0].length);</t>
+  </si>
+  <si>
+    <t>// Cách 1</t>
+  </si>
+  <si>
+    <t>int row</t>
+  </si>
+  <si>
+    <t>= arrMulti.length;</t>
+  </si>
+  <si>
+    <t>for(int i = 0; i &lt; row; i++){</t>
+  </si>
+  <si>
+    <t>for(int j = 0; j &lt; arrMulti[i].length; j++){</t>
+  </si>
+  <si>
+    <t>System.out.printf("Dòng %d cột %d: %d %n", i+1, j+1, arrMulti[i][j]);</t>
+  </si>
+  <si>
+    <t>// Cách 2</t>
+  </si>
+  <si>
+    <t>System.out.print(arrMulti[i][j] + " ");</t>
+  </si>
+  <si>
+    <t>System.out.println();</t>
+  </si>
+  <si>
+    <t>// Cách 3</t>
+  </si>
+  <si>
+    <t>System.out.println(Arrays.deepToString(arrMulti));</t>
+  </si>
+  <si>
+    <t>// Khai báo mảng đa chiều</t>
+  </si>
+  <si>
+    <t>public static void study001(){</t>
+  </si>
+  <si>
+    <t>= new int[2][3];</t>
+  </si>
+  <si>
+    <t>// Hàng thứ nhất row = 0</t>
+  </si>
+  <si>
+    <t>arrMulti[0][0]</t>
+  </si>
+  <si>
+    <t>= 2;</t>
+  </si>
+  <si>
+    <t>arrMulti[0][1]</t>
+  </si>
+  <si>
+    <t>= 9;</t>
+  </si>
+  <si>
+    <t>arrMulti[0][2]</t>
+  </si>
+  <si>
+    <t>= 1;</t>
+  </si>
+  <si>
+    <t>// Hàng thứ hai row = 1</t>
+  </si>
+  <si>
+    <t>arrMulti[1][0]</t>
+  </si>
+  <si>
+    <t>= 3;</t>
+  </si>
+  <si>
+    <t>arrMulti[1][1]</t>
+  </si>
+  <si>
+    <t>= 6;</t>
+  </si>
+  <si>
+    <t>arrMulti[1][2]</t>
+  </si>
+  <si>
+    <t>= 7;</t>
+  </si>
+  <si>
+    <r>
+      <t>In ra t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> các phân t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dòng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng 2 chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ỗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i hàng là 1 m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng nên arrMulti[0].length có đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a hàng 1</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deepToString()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> giúp in ra c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u trúc c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a 1 m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đa chi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -359,7 +1066,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +1116,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="3">
@@ -517,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -529,9 +1251,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -681,6 +1407,293 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255924</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66006CEC-2DE7-966D-7E17-DDF9A458C814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="3095625"/>
+          <a:ext cx="10009524" cy="5193651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>462105</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>78814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC1AF5FC-AD5A-0AB8-0547-B1605BFC0E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="15709900"/>
+          <a:ext cx="11561905" cy="4485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97117</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485589</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>67674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DF0B32-A3FA-7BEE-64BB-AFE6B4672027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754529" y="21186588"/>
+          <a:ext cx="6962589" cy="6671673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358235</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>33981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3832EA87-057C-6D28-E40E-4E276EA583B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="44733881"/>
+          <a:ext cx="8800000" cy="9028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE210AD-0F5E-733B-F156-700FC0303DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3145118" y="33296412"/>
+          <a:ext cx="5468470" cy="1509059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53734B6-9814-B820-6C49-C5788F3E2664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4646706" y="33998647"/>
+          <a:ext cx="1934882" cy="1038412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -951,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1014,7 +2027,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="4"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="5"/>
@@ -1056,99 +2069,66 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
       <c r="F65" s="5"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
       <c r="F66" s="5"/>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
       <c r="F67" s="5"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
       <c r="F71" s="5"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
       <c r="F75" s="5"/>
       <c r="G75" t="s">
         <v>8</v>
@@ -1161,108 +2141,72 @@
       <c r="B76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
       <c r="F77" s="5"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="2:13">
       <c r="B82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="2:13">
       <c r="B83" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="2:13">
       <c r="B84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="2:13">
       <c r="B85" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="2:13">
       <c r="B86" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
       <c r="F86" s="5"/>
     </row>
     <row r="87" spans="2:13">
       <c r="B87" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="2:13">
@@ -1273,7 +2217,7 @@
       <c r="F88" s="10"/>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C91" s="2"/>
@@ -1292,380 +2236,110 @@
       <c r="B92" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
       <c r="M92" s="5"/>
     </row>
     <row r="93" spans="2:13">
       <c r="B93" s="4"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
       <c r="M93" s="5"/>
     </row>
     <row r="94" spans="2:13">
       <c r="B94" s="4"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
       <c r="M94" s="5"/>
     </row>
     <row r="95" spans="2:13">
       <c r="B95" s="4"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
       <c r="M95" s="5"/>
     </row>
     <row r="96" spans="2:13">
       <c r="B96" s="4"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
       <c r="M96" s="5"/>
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="4"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
       <c r="M97" s="5"/>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="4"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
       <c r="M98" s="5"/>
     </row>
     <row r="99" spans="2:13">
       <c r="B99" s="4"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
       <c r="M99" s="5"/>
     </row>
     <row r="100" spans="2:13">
       <c r="B100" s="4"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
       <c r="M100" s="5"/>
     </row>
     <row r="101" spans="2:13">
       <c r="B101" s="4"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
       <c r="M101" s="5"/>
     </row>
     <row r="102" spans="2:13">
       <c r="B102" s="4"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
       <c r="M102" s="5"/>
     </row>
     <row r="103" spans="2:13">
       <c r="B103" s="4"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
       <c r="M103" s="5"/>
     </row>
     <row r="104" spans="2:13">
       <c r="B104" s="4"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
       <c r="M104" s="5"/>
     </row>
     <row r="105" spans="2:13">
       <c r="B105" s="4"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
       <c r="M105" s="5"/>
     </row>
     <row r="106" spans="2:13">
       <c r="B106" s="4"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
       <c r="M106" s="5"/>
     </row>
     <row r="107" spans="2:13">
       <c r="B107" s="4"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
       <c r="M107" s="5"/>
     </row>
     <row r="108" spans="2:13">
       <c r="B108" s="4"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
       <c r="M108" s="5"/>
     </row>
     <row r="109" spans="2:13">
       <c r="B109" s="4"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
       <c r="M109" s="5"/>
     </row>
     <row r="110" spans="2:13">
       <c r="B110" s="4"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
       <c r="M110" s="5"/>
     </row>
     <row r="111" spans="2:13">
       <c r="B111" s="4"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
       <c r="M111" s="5"/>
     </row>
     <row r="112" spans="2:13">
       <c r="B112" s="4"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
       <c r="M112" s="5"/>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="4"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
       <c r="M113" s="5"/>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="4"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
       <c r="M114" s="5"/>
     </row>
     <row r="115" spans="2:13">
       <c r="B115" s="4"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
       <c r="M115" s="5"/>
     </row>
     <row r="116" spans="2:13">
       <c r="B116" s="4"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
       <c r="M116" s="5"/>
     </row>
     <row r="117" spans="2:13">
       <c r="B117" s="4"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
       <c r="M117" s="5"/>
     </row>
     <row r="118" spans="2:13">
       <c r="B118" s="4"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
       <c r="M118" s="5"/>
     </row>
     <row r="119" spans="2:13">
@@ -1688,4 +2362,3923 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8512D8-E713-4BC8-B100-AC662FA159DD}">
+  <dimension ref="A3:S233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S129" sqref="S129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="5"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="5"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="5"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="5"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="5"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="5"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="5"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="5"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="5"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="5"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="5"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="5"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="5"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="5"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="5"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="5"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="5"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="5"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="5"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="4"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="5"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="4"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="5"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="4"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="5"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="4"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="5"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="4"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="5"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="4"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="5"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="4"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="4"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="5"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="4"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="5"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="4"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="4"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="5"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="4"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="5"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="4"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="5"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="4"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="5"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="4"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="5"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="4"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="5"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="4"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="5"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="4"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="5"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="4"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="5"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="4"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="5"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="4"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="5"/>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="4"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="5"/>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="4"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="5"/>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="4"/>
+      <c r="B92" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="5"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="4"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="5"/>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="4"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="5"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="4"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="5"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="4"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="5"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="4"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="5"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="4"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="5"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="4"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="5"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="4"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="5"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="4"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="5"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="4"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="5"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="4"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="5"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="4"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="4"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="5"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="4"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="5"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="4"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="5"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="4"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="5"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="4"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="5"/>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="4"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="5"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="4"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="5"/>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="4"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="5"/>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="4"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="5"/>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="4"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="5"/>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="4"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="5"/>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="4"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="5"/>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="4"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="5"/>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="4"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="5"/>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="4"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="5"/>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="4"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="5"/>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="4"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="5"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="10"/>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="3"/>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="4"/>
+      <c r="B126" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
+      <c r="O126" s="5"/>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="4"/>
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="5"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="4"/>
+      <c r="B129" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
+      <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="5"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="4"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="16"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="5"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
+      <c r="O134" s="5"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
+      <c r="O135" s="5"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="4"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="5"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="4"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="5"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="5"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="4"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="5"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="5"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="4"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="5"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="4"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="5"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="5"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="4"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="4"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
+      <c r="O142" s="5"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="4"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
+      <c r="O143" s="5"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="4"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N144" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O144" s="5"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="4"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="5"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="4"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="5"/>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="4"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N147" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O147" s="5"/>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="4"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="5"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="4"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="5"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="4"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="12"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
+      <c r="O150" s="5"/>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="4"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="5"/>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="4"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="5"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="4"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="5"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="4"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="5"/>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="4"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="5"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="4"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12"/>
+      <c r="O156" s="5"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="4"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="5"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="4"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
+      <c r="O158" s="5"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="4"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="5"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="4"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="5"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="4"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="5"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="4"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="5"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="4"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="5"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="4"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="5"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="4"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="5"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="4"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N166" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O166" s="5"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="4"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12"/>
+      <c r="O167" s="5"/>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="5"/>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12"/>
+      <c r="O169" s="5"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="5"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="5"/>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="5"/>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="5"/>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="5"/>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="5"/>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="5"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="5"/>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="5"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="5"/>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="5"/>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="5"/>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="5"/>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12"/>
+      <c r="O181" s="5"/>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="5"/>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="5"/>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="5"/>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="5"/>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="5"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="5"/>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="5"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="5"/>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="5"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="5"/>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="5"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="5"/>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" s="4"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="9"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="5"/>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" s="4"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="5"/>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" s="4"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="5"/>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193" s="4"/>
+      <c r="B193" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
+      <c r="O193" s="5"/>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194" s="4"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="5"/>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195" s="4"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="5"/>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196" s="4"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="5"/>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197" s="4"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="5"/>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="A198" s="4"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12"/>
+      <c r="O198" s="5"/>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="4"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12"/>
+      <c r="O199" s="5"/>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="4"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="5"/>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201" s="4"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
+      <c r="O201" s="5"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="4"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="5"/>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="4"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="5"/>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="4"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="12"/>
+      <c r="O204" s="5"/>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="4"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="5"/>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206" s="4"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="5"/>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="A207" s="4"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="5"/>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208" s="4"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="5"/>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209" s="4"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+      <c r="O209" s="5"/>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210" s="4"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="5"/>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211" s="4"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="12"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="12"/>
+      <c r="O211" s="5"/>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="4"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="12"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="12"/>
+      <c r="O212" s="5"/>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="4"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="12"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="12"/>
+      <c r="O213" s="5"/>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214" s="4"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="12"/>
+      <c r="O214" s="5"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215" s="4"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="12"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="12"/>
+      <c r="M215" s="12"/>
+      <c r="N215" s="12"/>
+      <c r="O215" s="5"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216" s="4"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="12"/>
+      <c r="M216" s="12"/>
+      <c r="N216" s="12"/>
+      <c r="O216" s="5"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217" s="4"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="12"/>
+      <c r="M217" s="12"/>
+      <c r="N217" s="12"/>
+      <c r="O217" s="5"/>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218" s="4"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="5"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219" s="4"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="12"/>
+      <c r="K219" s="12"/>
+      <c r="L219" s="12"/>
+      <c r="M219" s="12"/>
+      <c r="N219" s="12"/>
+      <c r="O219" s="5"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="4"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
+      <c r="M220" s="12"/>
+      <c r="N220" s="12"/>
+      <c r="O220" s="5"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221" s="4"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="E221" s="12"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="12"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="12"/>
+      <c r="O221" s="5"/>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222" s="4"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="5"/>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="4"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="E223" s="12"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="12"/>
+      <c r="K223" s="12"/>
+      <c r="L223" s="12"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="12"/>
+      <c r="O223" s="5"/>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224" s="4"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="E224" s="12"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="5"/>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="4"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="12"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="5"/>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="4"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="E226" s="12"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="12"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="12"/>
+      <c r="O226" s="5"/>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227" s="4"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="5"/>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228" s="4"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="12"/>
+      <c r="E228" s="12"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="5"/>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" s="4"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="12"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="12"/>
+      <c r="O229" s="5"/>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="4"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="12"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="12"/>
+      <c r="O230" s="5"/>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231" s="4"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="12"/>
+      <c r="M231" s="12"/>
+      <c r="N231" s="12"/>
+      <c r="O231" s="5"/>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232" s="4"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="12"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="12"/>
+      <c r="O232" s="5"/>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233" s="8"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="9"/>
+      <c r="L233" s="9"/>
+      <c r="M233" s="9"/>
+      <c r="N233" s="9"/>
+      <c r="O233" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40645A5E-34EF-4FE5-A287-6EC3DCD305E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6939773-1BF2-4273-B65E-CBBAA5066D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="2535" windowWidth="23790" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
     <sheet name="Element &amp; Print" sheetId="2" r:id="rId2"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -1058,6 +1059,206 @@
         <scheme val="minor"/>
       </rPr>
       <t>u</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>import java.util.Scanner;</t>
+  </si>
+  <si>
+    <t>        study003();</t>
+  </si>
+  <si>
+    <t>    // Nhập mảng đa chiều</t>
+  </si>
+  <si>
+    <t>    public static void study003(){</t>
+  </si>
+  <si>
+    <t>        int rows, columns;</t>
+  </si>
+  <si>
+    <t>        Scanner sc = new Scanner(System.in);</t>
+  </si>
+  <si>
+    <t>        System.out.println("Rows: ");</t>
+  </si>
+  <si>
+    <t>        rows    = sc.nextInt();</t>
+  </si>
+  <si>
+    <t>        sc.nextLine();</t>
+  </si>
+  <si>
+    <t>        System.out.println("Columns: ");</t>
+  </si>
+  <si>
+    <t>        columns = sc.nextInt();</t>
+  </si>
+  <si>
+    <t>        int[][] arrMulti = new int[rows][columns] ;</t>
+  </si>
+  <si>
+    <t>        for(int i = 0; i &lt; rows; i++){</t>
+  </si>
+  <si>
+    <t>            for(int j = 0; j &lt; columns; j++){</t>
+  </si>
+  <si>
+    <t>                System.out.printf("Dòng %d cột %d: %n", i+1, j+1);</t>
+  </si>
+  <si>
+    <t>                arrMulti[i][j]  = sc.nextInt();</t>
+  </si>
+  <si>
+    <t>                sc.nextLine();</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        sc.close();</t>
+  </si>
+  <si>
+    <t>        // 2 5 7 3</t>
+  </si>
+  <si>
+    <t>        // 4 1 2 2</t>
+  </si>
+  <si>
+    <t>        // 6 7 1 1</t>
+  </si>
+  <si>
+    <t>        System.out.println(Arrays.deepToString(arrMulti));</t>
+  </si>
+  <si>
+    <t>    // Truy cập và in mảng đa chiều</t>
+  </si>
+  <si>
+    <t>    public static void study002(){</t>
+  </si>
+  <si>
+    <t>        int[][] arrMulti    = {{2, 9, 1},{3, 6, 7}};</t>
+  </si>
+  <si>
+    <t>        System.out.println("So phan tu cua mang(So hang): " + arrMulti.length);</t>
+  </si>
+  <si>
+    <t>        System.out.println("So phan tu cua hang 1(So cot): " + arrMulti[0].length);</t>
+  </si>
+  <si>
+    <t>        // Cách 1</t>
+  </si>
+  <si>
+    <t>        int row = arrMulti.length;</t>
+  </si>
+  <si>
+    <t>        for(int i = 0; i &lt; row; i++){</t>
+  </si>
+  <si>
+    <t>            for(int j = 0; j &lt; arrMulti[i].length; j++){</t>
+  </si>
+  <si>
+    <t>                System.out.printf("Dòng %d cột %d: %d %n", i+1, j+1, arrMulti[i][j]);</t>
+  </si>
+  <si>
+    <t>        // Cách 2</t>
+  </si>
+  <si>
+    <t>                System.out.print(arrMulti[i][j] + " ");</t>
+  </si>
+  <si>
+    <t>            System.out.println();</t>
+  </si>
+  <si>
+    <t>        // Cách 3</t>
+  </si>
+  <si>
+    <r>
+      <t>Nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p vào s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dòng c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -1239,7 +1440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1252,12 +1453,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1699,6 +1899,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>402043</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>125882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299E44C7-CDE5-B79D-198A-7AA1664785E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="25927050"/>
+          <a:ext cx="9460318" cy="8946032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2368,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8512D8-E713-4BC8-B100-AC662FA159DD}">
   <dimension ref="A3:S233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S129" sqref="S129"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2482,25 +2731,9 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="4"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
       <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:19">
@@ -2513,38 +2746,12 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
       <c r="S42" s="5"/>
     </row>
     <row r="43" spans="1:19">
@@ -2552,22 +2759,7 @@
       <c r="B43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
       <c r="S43" s="5"/>
     </row>
     <row r="44" spans="1:19">
@@ -2575,22 +2767,7 @@
       <c r="B44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
       <c r="S44" s="5"/>
     </row>
     <row r="45" spans="1:19">
@@ -2598,22 +2775,7 @@
       <c r="B45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
       <c r="S45" s="5"/>
     </row>
     <row r="46" spans="1:19">
@@ -2621,22 +2783,7 @@
       <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
       <c r="S46" s="5"/>
     </row>
     <row r="47" spans="1:19">
@@ -2644,22 +2791,7 @@
       <c r="B47" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
       <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19">
@@ -2667,22 +2799,7 @@
       <c r="B48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
       <c r="S48" s="5"/>
     </row>
     <row r="49" spans="1:19">
@@ -2690,22 +2807,7 @@
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
       <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19">
@@ -2713,22 +2815,7 @@
       <c r="B50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
       <c r="S50" s="5"/>
     </row>
     <row r="51" spans="1:19">
@@ -2736,22 +2823,7 @@
       <c r="B51" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
       <c r="S51" s="5"/>
     </row>
     <row r="52" spans="1:19">
@@ -2759,22 +2831,7 @@
       <c r="B52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19">
@@ -2782,22 +2839,7 @@
       <c r="B53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19">
@@ -2805,22 +2847,7 @@
       <c r="B54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19">
@@ -2828,22 +2855,7 @@
       <c r="B55" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19">
@@ -2851,22 +2863,7 @@
       <c r="B56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19">
@@ -2874,22 +2871,7 @@
       <c r="B57" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19">
@@ -2897,22 +2879,7 @@
       <c r="B58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19">
@@ -2920,22 +2887,7 @@
       <c r="B59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
       <c r="S59" s="5"/>
     </row>
     <row r="60" spans="1:19">
@@ -2943,22 +2895,7 @@
       <c r="B60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
       <c r="S60" s="5"/>
     </row>
     <row r="61" spans="1:19">
@@ -2966,22 +2903,7 @@
       <c r="B61" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
       <c r="S61" s="5"/>
     </row>
     <row r="62" spans="1:19">
@@ -2989,22 +2911,7 @@
       <c r="B62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
       <c r="S62" s="5"/>
     </row>
     <row r="63" spans="1:19">
@@ -3012,22 +2919,7 @@
       <c r="B63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
       <c r="S63" s="5"/>
     </row>
     <row r="64" spans="1:19">
@@ -3035,22 +2927,7 @@
       <c r="B64" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
       <c r="S64" s="5"/>
     </row>
     <row r="65" spans="1:19">
@@ -3058,22 +2935,7 @@
       <c r="B65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
       <c r="S65" s="5"/>
     </row>
     <row r="66" spans="1:19">
@@ -3081,22 +2943,7 @@
       <c r="B66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
       <c r="S66" s="5"/>
     </row>
     <row r="67" spans="1:19">
@@ -3104,22 +2951,7 @@
       <c r="B67" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
       <c r="S67" s="5"/>
     </row>
     <row r="68" spans="1:19">
@@ -3127,22 +2959,7 @@
       <c r="B68" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
       <c r="S68" s="5"/>
     </row>
     <row r="69" spans="1:19">
@@ -3153,1111 +2970,217 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
       <c r="S69" s="5"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="4"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
       <c r="S70" s="5"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="4"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
       <c r="S71" s="5"/>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="4"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
       <c r="S72" s="5"/>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="4"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
       <c r="S73" s="5"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="4"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
       <c r="S74" s="5"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="4"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
       <c r="S75" s="5"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="4"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
       <c r="S76" s="5"/>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="4"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
       <c r="S77" s="5"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="4"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
       <c r="S78" s="5"/>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="4"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
       <c r="S79" s="5"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="4"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
       <c r="S80" s="5"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="4"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
       <c r="S81" s="5"/>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="4"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
       <c r="S82" s="5"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="4"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
       <c r="S83" s="5"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="4"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
       <c r="S84" s="5"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="4"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
       <c r="S85" s="5"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="4"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
       <c r="S86" s="5"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="4"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
       <c r="S87" s="5"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="4"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
       <c r="S88" s="5"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="4"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
       <c r="S89" s="5"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="4"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
       <c r="S90" s="5"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="4"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
       <c r="S91" s="5"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="4"/>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
       <c r="S92" s="5"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="4"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
       <c r="S93" s="5"/>
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="4"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
       <c r="S94" s="5"/>
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="4"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
       <c r="S95" s="5"/>
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="4"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="12"/>
       <c r="S96" s="5"/>
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="4"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
       <c r="S97" s="5"/>
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="4"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="12"/>
       <c r="S98" s="5"/>
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="4"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
       <c r="S99" s="5"/>
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="4"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
       <c r="S100" s="5"/>
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="4"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="12"/>
-      <c r="R101" s="12"/>
       <c r="S101" s="5"/>
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="4"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
       <c r="S102" s="5"/>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="4"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="12"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="12"/>
       <c r="S103" s="5"/>
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="4"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
       <c r="S104" s="5"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="4"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
       <c r="S105" s="5"/>
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="4"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
       <c r="S106" s="5"/>
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="4"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="12"/>
-      <c r="O107" s="12"/>
-      <c r="P107" s="12"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
       <c r="S107" s="5"/>
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="4"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
-      <c r="O108" s="12"/>
-      <c r="P108" s="12"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
       <c r="S108" s="5"/>
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="4"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
       <c r="S109" s="5"/>
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="4"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
       <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="4"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="12"/>
       <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="4"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="12"/>
       <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="4"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
       <c r="S113" s="5"/>
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="4"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
       <c r="S114" s="5"/>
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="4"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="12"/>
       <c r="S115" s="5"/>
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="4"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
       <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="4"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
       <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="4"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
       <c r="S118" s="5"/>
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="4"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
       <c r="S119" s="5"/>
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="4"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="12"/>
       <c r="S120" s="5"/>
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="4"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
       <c r="S121" s="5"/>
     </row>
     <row r="122" spans="1:19">
@@ -4302,21 +3225,9 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="4"/>
-      <c r="B126" s="12" t="s">
+      <c r="B126" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="12"/>
-      <c r="N126" s="12"/>
       <c r="O126" s="5"/>
     </row>
     <row r="127" spans="1:19">
@@ -4334,61 +3245,26 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="3"/>
-      <c r="M127" s="12"/>
-      <c r="N127" s="12"/>
       <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:19">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
       <c r="O128" s="5"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="4"/>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="12"/>
-      <c r="N129" s="12"/>
       <c r="O129" s="5"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="12"/>
-      <c r="N130" s="12"/>
       <c r="O130" s="5"/>
     </row>
     <row r="131" spans="1:15">
@@ -4396,1115 +3272,737 @@
       <c r="B131" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
       <c r="O131" s="5"/>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="12" t="s">
+      <c r="C132" t="s">
         <v>42</v>
       </c>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="12"/>
-      <c r="N132" s="12"/>
       <c r="O132" s="5"/>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="4"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15" t="s">
+      <c r="B133" s="13"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E133" s="16"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
+      <c r="E133" s="14"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="12"/>
-      <c r="N133" s="12"/>
       <c r="O133" s="5"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="12" t="s">
+      <c r="C134" t="s">
         <v>32</v>
       </c>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="12"/>
-      <c r="N134" s="12"/>
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="12"/>
-      <c r="N135" s="12"/>
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="4"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="15" t="s">
+      <c r="B136" s="13"/>
+      <c r="C136" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="12"/>
-      <c r="N136" s="12"/>
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="4"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="15" t="s">
+      <c r="B137" s="13"/>
+      <c r="C137" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="4"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15" t="s">
+      <c r="B138" s="13"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="4"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15" t="s">
+      <c r="B139" s="13"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="12"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="12"/>
-      <c r="N139" s="12"/>
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="4"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15" t="s">
+      <c r="B140" s="13"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E140" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F140" s="15" t="s">
+      <c r="F140" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="12"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="4"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="4"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="12"/>
-      <c r="K142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="4"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15" t="s">
+      <c r="B143" s="13"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
       <c r="O143" s="5"/>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="4"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15" t="s">
+      <c r="B144" s="13"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="12" t="s">
+      <c r="M144" t="s">
         <v>8</v>
       </c>
-      <c r="N144" s="12" t="s">
+      <c r="N144" t="s">
         <v>85</v>
       </c>
       <c r="O144" s="5"/>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="4"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15" t="s">
+      <c r="B145" s="13"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="12"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
       <c r="O145" s="5"/>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="4"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15" t="s">
+      <c r="B146" s="13"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
       <c r="O146" s="5"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="4"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15" t="s">
+      <c r="B147" s="13"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="12" t="s">
+      <c r="M147" t="s">
         <v>8</v>
       </c>
-      <c r="N147" s="12" t="s">
+      <c r="N147" t="s">
         <v>86</v>
       </c>
       <c r="O147" s="5"/>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="4"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
       <c r="O148" s="5"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="4"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15" t="s">
+      <c r="B149" s="13"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
       <c r="O149" s="5"/>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="4"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15" t="s">
+      <c r="B150" s="13"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="12"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="12"/>
-      <c r="N150" s="12"/>
       <c r="O150" s="5"/>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="4"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15" t="s">
+      <c r="B151" s="13"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
       <c r="O151" s="5"/>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="4"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15" t="s">
+      <c r="B152" s="13"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
       <c r="O152" s="5"/>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="4"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15" t="s">
+      <c r="B153" s="13"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
       <c r="O153" s="5"/>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="4"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15" t="s">
+      <c r="B154" s="13"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
       <c r="O154" s="5"/>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="4"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15" t="s">
+      <c r="B155" s="13"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="12"/>
       <c r="O155" s="5"/>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="4"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="12"/>
       <c r="O156" s="5"/>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="4"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15" t="s">
+      <c r="B157" s="13"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="12"/>
       <c r="O157" s="5"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="4"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15" t="s">
+      <c r="B158" s="13"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="12"/>
-      <c r="N158" s="12"/>
       <c r="O158" s="5"/>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="4"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15" t="s">
+      <c r="B159" s="13"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
       <c r="O159" s="5"/>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="4"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15" t="s">
+      <c r="B160" s="13"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
       <c r="O160" s="5"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="4"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15" t="s">
+      <c r="B161" s="13"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
       <c r="L161" s="5"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
       <c r="O161" s="5"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="4"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15" t="s">
+      <c r="B162" s="13"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
       <c r="L162" s="5"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
       <c r="O162" s="5"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="4"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15" t="s">
+      <c r="B163" s="13"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="12"/>
-      <c r="K163" s="12"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
       <c r="L163" s="5"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="12"/>
       <c r="O163" s="5"/>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="4"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
       <c r="L164" s="5"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
       <c r="O164" s="5"/>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="4"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15" t="s">
+      <c r="B165" s="13"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
       <c r="L165" s="5"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
       <c r="O165" s="5"/>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="4"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15" t="s">
+      <c r="B166" s="13"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
       <c r="L166" s="5"/>
-      <c r="M166" s="12" t="s">
+      <c r="M166" t="s">
         <v>8</v>
       </c>
-      <c r="N166" s="17" t="s">
+      <c r="N166" s="6" t="s">
         <v>87</v>
       </c>
       <c r="O166" s="5"/>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="4"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="15" t="s">
+      <c r="B167" s="13"/>
+      <c r="C167" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
       <c r="L167" s="5"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
       <c r="O167" s="5"/>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
-      <c r="J168" s="12"/>
-      <c r="K168" s="12"/>
       <c r="L168" s="5"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="12"/>
       <c r="O168" s="5"/>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="12" t="s">
+      <c r="C169" t="s">
         <v>67</v>
       </c>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="12"/>
       <c r="L169" s="5"/>
-      <c r="M169" s="12"/>
-      <c r="N169" s="12"/>
       <c r="O169" s="5"/>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="12" t="s">
+      <c r="C170" t="s">
         <v>68</v>
       </c>
-      <c r="D170" s="12"/>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
-      <c r="G170" s="12"/>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="12"/>
-      <c r="K170" s="12"/>
       <c r="L170" s="5"/>
-      <c r="M170" s="12"/>
-      <c r="N170" s="12"/>
       <c r="O170" s="5"/>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12" t="s">
+      <c r="D171" t="s">
         <v>46</v>
       </c>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
       <c r="L171" s="5"/>
-      <c r="M171" s="12"/>
-      <c r="N171" s="12"/>
       <c r="O171" s="5"/>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12" t="s">
+      <c r="D172" t="s">
         <v>47</v>
       </c>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
       <c r="L172" s="5"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
       <c r="O172" s="5"/>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12" t="s">
+      <c r="D173" t="s">
         <v>48</v>
       </c>
-      <c r="E173" s="12" t="s">
+      <c r="E173" t="s">
         <v>49</v>
       </c>
-      <c r="F173" s="12" t="s">
+      <c r="F173" t="s">
         <v>69</v>
       </c>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
       <c r="L173" s="5"/>
-      <c r="M173" s="12"/>
-      <c r="N173" s="12"/>
       <c r="O173" s="5"/>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
       <c r="L174" s="5"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
       <c r="O174" s="5"/>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12" t="s">
+      <c r="D175" t="s">
         <v>70</v>
       </c>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
       <c r="L175" s="5"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
       <c r="O175" s="5"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12" t="s">
+      <c r="D176" t="s">
         <v>71</v>
       </c>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12" t="s">
+      <c r="F176" t="s">
         <v>72</v>
       </c>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
       <c r="L176" s="5"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
       <c r="O176" s="5"/>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12" t="s">
+      <c r="D177" t="s">
         <v>73</v>
       </c>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12" t="s">
+      <c r="F177" t="s">
         <v>74</v>
       </c>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
       <c r="L177" s="5"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
       <c r="O177" s="5"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12" t="s">
+      <c r="D178" t="s">
         <v>75</v>
       </c>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12" t="s">
+      <c r="F178" t="s">
         <v>76</v>
       </c>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
       <c r="L178" s="5"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="12"/>
       <c r="O178" s="5"/>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
       <c r="L179" s="5"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
       <c r="O179" s="5"/>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12" t="s">
+      <c r="D180" t="s">
         <v>77</v>
       </c>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
       <c r="L180" s="5"/>
-      <c r="M180" s="12"/>
-      <c r="N180" s="12"/>
       <c r="O180" s="5"/>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12" t="s">
+      <c r="D181" t="s">
         <v>78</v>
       </c>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12" t="s">
+      <c r="F181" t="s">
         <v>79</v>
       </c>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="12"/>
       <c r="L181" s="5"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="12"/>
       <c r="O181" s="5"/>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12" t="s">
+      <c r="D182" t="s">
         <v>80</v>
       </c>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12" t="s">
+      <c r="F182" t="s">
         <v>81</v>
       </c>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
       <c r="L182" s="5"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="12"/>
       <c r="O182" s="5"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12" t="s">
+      <c r="D183" t="s">
         <v>82</v>
       </c>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12" t="s">
+      <c r="F183" t="s">
         <v>83</v>
       </c>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
       <c r="L183" s="5"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
       <c r="O183" s="5"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
       <c r="L184" s="5"/>
-      <c r="M184" s="12"/>
-      <c r="N184" s="12"/>
       <c r="O184" s="5"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12" t="s">
+      <c r="D185" t="s">
         <v>51</v>
       </c>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
       <c r="L185" s="5"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
       <c r="O185" s="5"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12" t="s">
+      <c r="D186" t="s">
         <v>53</v>
       </c>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
       <c r="L186" s="5"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="12"/>
       <c r="O186" s="5"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12" t="s">
+      <c r="D187" t="s">
         <v>54</v>
       </c>
-      <c r="E187" s="12"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
       <c r="L187" s="5"/>
-      <c r="M187" s="12"/>
-      <c r="N187" s="12"/>
       <c r="O187" s="5"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="12" t="s">
+      <c r="C188" t="s">
         <v>32</v>
       </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
       <c r="L188" s="5"/>
-      <c r="M188" s="12"/>
-      <c r="N188" s="12"/>
       <c r="O188" s="5"/>
     </row>
     <row r="189" spans="1:15">
@@ -5512,18 +4010,7 @@
       <c r="B189" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
       <c r="L189" s="5"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="12"/>
       <c r="O189" s="5"/>
     </row>
     <row r="190" spans="1:15">
@@ -5539,724 +4026,177 @@
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="10"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="12"/>
       <c r="O190" s="5"/>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="4"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-      <c r="M191" s="12"/>
-      <c r="N191" s="12"/>
       <c r="O191" s="5"/>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="4"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-      <c r="H192" s="12"/>
-      <c r="I192" s="12"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
-      <c r="M192" s="12"/>
-      <c r="N192" s="12"/>
       <c r="O192" s="5"/>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="4"/>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12"/>
-      <c r="H193" s="12"/>
-      <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="12"/>
       <c r="O193" s="5"/>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="4"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
-      <c r="G194" s="12"/>
-      <c r="H194" s="12"/>
-      <c r="I194" s="12"/>
-      <c r="J194" s="12"/>
-      <c r="K194" s="12"/>
-      <c r="L194" s="12"/>
-      <c r="M194" s="12"/>
-      <c r="N194" s="12"/>
       <c r="O194" s="5"/>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="4"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
-      <c r="G195" s="12"/>
-      <c r="H195" s="12"/>
-      <c r="I195" s="12"/>
-      <c r="J195" s="12"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="12"/>
       <c r="O195" s="5"/>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="4"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="12"/>
-      <c r="G196" s="12"/>
-      <c r="H196" s="12"/>
-      <c r="I196" s="12"/>
-      <c r="J196" s="12"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
-      <c r="M196" s="12"/>
-      <c r="N196" s="12"/>
       <c r="O196" s="5"/>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="4"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-      <c r="H197" s="12"/>
-      <c r="I197" s="12"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
-      <c r="M197" s="12"/>
-      <c r="N197" s="12"/>
       <c r="O197" s="5"/>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="4"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="12"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
-      <c r="M198" s="12"/>
-      <c r="N198" s="12"/>
       <c r="O198" s="5"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="4"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
-      <c r="G199" s="12"/>
-      <c r="H199" s="12"/>
-      <c r="I199" s="12"/>
-      <c r="J199" s="12"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="12"/>
-      <c r="N199" s="12"/>
       <c r="O199" s="5"/>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="4"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
-      <c r="G200" s="12"/>
-      <c r="H200" s="12"/>
-      <c r="I200" s="12"/>
-      <c r="J200" s="12"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
-      <c r="M200" s="12"/>
-      <c r="N200" s="12"/>
       <c r="O200" s="5"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="4"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
       <c r="O201" s="5"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="4"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
       <c r="O202" s="5"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="4"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
-      <c r="J203" s="12"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
-      <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
       <c r="O203" s="5"/>
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="4"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-      <c r="J204" s="12"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
-      <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
       <c r="O204" s="5"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="4"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="12"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
-      <c r="J205" s="12"/>
-      <c r="K205" s="12"/>
-      <c r="L205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
       <c r="O205" s="5"/>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="4"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="12"/>
-      <c r="L206" s="12"/>
-      <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
       <c r="O206" s="5"/>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="4"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
-      <c r="K207" s="12"/>
-      <c r="L207" s="12"/>
-      <c r="M207" s="12"/>
-      <c r="N207" s="12"/>
       <c r="O207" s="5"/>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="4"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
-      <c r="J208" s="12"/>
-      <c r="K208" s="12"/>
-      <c r="L208" s="12"/>
-      <c r="M208" s="12"/>
-      <c r="N208" s="12"/>
       <c r="O208" s="5"/>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="4"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
-      <c r="J209" s="12"/>
-      <c r="K209" s="12"/>
-      <c r="L209" s="12"/>
-      <c r="M209" s="12"/>
-      <c r="N209" s="12"/>
       <c r="O209" s="5"/>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="4"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
-      <c r="J210" s="12"/>
-      <c r="K210" s="12"/>
-      <c r="L210" s="12"/>
-      <c r="M210" s="12"/>
-      <c r="N210" s="12"/>
       <c r="O210" s="5"/>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="4"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
-      <c r="J211" s="12"/>
-      <c r="K211" s="12"/>
-      <c r="L211" s="12"/>
-      <c r="M211" s="12"/>
-      <c r="N211" s="12"/>
       <c r="O211" s="5"/>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="4"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
-      <c r="J212" s="12"/>
-      <c r="K212" s="12"/>
-      <c r="L212" s="12"/>
-      <c r="M212" s="12"/>
-      <c r="N212" s="12"/>
       <c r="O212" s="5"/>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="4"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
       <c r="O213" s="5"/>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="4"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
-      <c r="J214" s="12"/>
-      <c r="K214" s="12"/>
-      <c r="L214" s="12"/>
-      <c r="M214" s="12"/>
-      <c r="N214" s="12"/>
       <c r="O214" s="5"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="4"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="12"/>
-      <c r="L215" s="12"/>
-      <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
       <c r="O215" s="5"/>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="4"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
       <c r="O216" s="5"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="4"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
-      <c r="J217" s="12"/>
-      <c r="K217" s="12"/>
-      <c r="L217" s="12"/>
-      <c r="M217" s="12"/>
-      <c r="N217" s="12"/>
       <c r="O217" s="5"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="4"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
       <c r="O218" s="5"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="4"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
-      <c r="J219" s="12"/>
-      <c r="K219" s="12"/>
-      <c r="L219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
       <c r="O219" s="5"/>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="4"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
       <c r="O220" s="5"/>
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="4"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
-      <c r="J221" s="12"/>
-      <c r="K221" s="12"/>
-      <c r="L221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
       <c r="O221" s="5"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="4"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
       <c r="O222" s="5"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="4"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
-      <c r="M223" s="12"/>
-      <c r="N223" s="12"/>
       <c r="O223" s="5"/>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="4"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="12"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
       <c r="O224" s="5"/>
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="4"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="12"/>
-      <c r="K225" s="12"/>
-      <c r="L225" s="12"/>
-      <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
       <c r="O225" s="5"/>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="4"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
       <c r="O226" s="5"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="4"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="12"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
-      <c r="M227" s="12"/>
-      <c r="N227" s="12"/>
       <c r="O227" s="5"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="4"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
       <c r="O228" s="5"/>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="4"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="12"/>
-      <c r="K229" s="12"/>
-      <c r="L229" s="12"/>
-      <c r="M229" s="12"/>
-      <c r="N229" s="12"/>
       <c r="O229" s="5"/>
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="4"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="12"/>
-      <c r="K230" s="12"/>
-      <c r="L230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
       <c r="O230" s="5"/>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="4"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="12"/>
-      <c r="K231" s="12"/>
-      <c r="L231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
       <c r="O231" s="5"/>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="4"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="12"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
       <c r="O232" s="5"/>
     </row>
     <row r="233" spans="1:15">
@@ -6281,4 +4221,2041 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E2FDEF-A0B6-48E8-873B-66802E629548}">
+  <dimension ref="B3:P153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="P108" sqref="P108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="5"/>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="10"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="3"/>
+    </row>
+    <row r="114" spans="2:16">
+      <c r="B114" s="4"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="5"/>
+    </row>
+    <row r="115" spans="2:16">
+      <c r="B115" s="4"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="5"/>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" s="4"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="5"/>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" s="4"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="5"/>
+    </row>
+    <row r="118" spans="2:16">
+      <c r="B118" s="4"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="5"/>
+    </row>
+    <row r="119" spans="2:16">
+      <c r="B119" s="4"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="5"/>
+    </row>
+    <row r="120" spans="2:16">
+      <c r="B120" s="4"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="5"/>
+    </row>
+    <row r="121" spans="2:16">
+      <c r="B121" s="4"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="5"/>
+    </row>
+    <row r="122" spans="2:16">
+      <c r="B122" s="4"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="5"/>
+    </row>
+    <row r="123" spans="2:16">
+      <c r="B123" s="4"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="5"/>
+    </row>
+    <row r="124" spans="2:16">
+      <c r="B124" s="4"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="5"/>
+    </row>
+    <row r="125" spans="2:16">
+      <c r="B125" s="4"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="5"/>
+    </row>
+    <row r="126" spans="2:16">
+      <c r="B126" s="4"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="5"/>
+    </row>
+    <row r="127" spans="2:16">
+      <c r="B127" s="4"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="5"/>
+    </row>
+    <row r="128" spans="2:16">
+      <c r="B128" s="4"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="5"/>
+    </row>
+    <row r="129" spans="2:16">
+      <c r="B129" s="4"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="5"/>
+    </row>
+    <row r="130" spans="2:16">
+      <c r="B130" s="4"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="5"/>
+    </row>
+    <row r="131" spans="2:16">
+      <c r="B131" s="4"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="5"/>
+    </row>
+    <row r="132" spans="2:16">
+      <c r="B132" s="4"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="5"/>
+    </row>
+    <row r="133" spans="2:16">
+      <c r="B133" s="4"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="5"/>
+    </row>
+    <row r="134" spans="2:16">
+      <c r="B134" s="4"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="5"/>
+    </row>
+    <row r="135" spans="2:16">
+      <c r="B135" s="4"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="5"/>
+    </row>
+    <row r="136" spans="2:16">
+      <c r="B136" s="4"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="5"/>
+    </row>
+    <row r="137" spans="2:16">
+      <c r="B137" s="4"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="5"/>
+    </row>
+    <row r="138" spans="2:16">
+      <c r="B138" s="4"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="5"/>
+    </row>
+    <row r="139" spans="2:16">
+      <c r="B139" s="4"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="5"/>
+    </row>
+    <row r="140" spans="2:16">
+      <c r="B140" s="4"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="5"/>
+    </row>
+    <row r="141" spans="2:16">
+      <c r="B141" s="4"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="5"/>
+    </row>
+    <row r="142" spans="2:16">
+      <c r="B142" s="4"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="5"/>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="B143" s="4"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="5"/>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="B144" s="4"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="5"/>
+    </row>
+    <row r="145" spans="2:16">
+      <c r="B145" s="4"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="5"/>
+    </row>
+    <row r="146" spans="2:16">
+      <c r="B146" s="4"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="5"/>
+    </row>
+    <row r="147" spans="2:16">
+      <c r="B147" s="4"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="5"/>
+    </row>
+    <row r="148" spans="2:16">
+      <c r="B148" s="4"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="5"/>
+    </row>
+    <row r="149" spans="2:16">
+      <c r="B149" s="4"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="5"/>
+    </row>
+    <row r="150" spans="2:16">
+      <c r="B150" s="4"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="5"/>
+    </row>
+    <row r="151" spans="2:16">
+      <c r="B151" s="4"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="5"/>
+    </row>
+    <row r="152" spans="2:16">
+      <c r="B152" s="4"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="5"/>
+    </row>
+    <row r="153" spans="2:16">
+      <c r="B153" s="8"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+      <c r="L153" s="9"/>
+      <c r="M153" s="9"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6939773-1BF2-4273-B65E-CBBAA5066D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE5598-E702-4B3B-B12A-E1F858CA7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="2535" windowWidth="23790" windowHeight="12825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="2535" windowWidth="23790" windowHeight="12825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
     <sheet name="Element &amp; Print" sheetId="2" r:id="rId2"/>
     <sheet name="Matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="Tổng dòng" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="141">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -1261,6 +1262,49 @@
       <t>ng</t>
     </r>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>        study004();</t>
+  </si>
+  <si>
+    <t>    // Tính tổng các phần tử trên cùng một dòng</t>
+  </si>
+  <si>
+    <t>    public static void study004(){</t>
+  </si>
+  <si>
+    <t>        // 1 2 3 1</t>
+  </si>
+  <si>
+    <t>        // 4 5 6 4</t>
+  </si>
+  <si>
+    <t>        // 7 8 9 7</t>
+  </si>
+  <si>
+    <t>        int[][] arrMulti    = {{1, 2, 3, 1}, {4, 5, 6, 4}, {7, 8, 9, 7}};</t>
+  </si>
+  <si>
+    <t>        int sum     = 0;</t>
+  </si>
+  <si>
+    <t>        int row     = 3;    // arrMulti[row-1]</t>
+  </si>
+  <si>
+    <t>        for(int number : arrMulti[row-1]){</t>
+  </si>
+  <si>
+    <t>            sum += number;</t>
+  </si>
+  <si>
+    <t>        System.out.println(Arrays.toString(arrMulti[row-1]));</t>
+  </si>
+  <si>
+    <t>        System.out.println(sum);</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1956,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>402043</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>125882</xdr:rowOff>
+      <xdr:rowOff>122707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1937,6 +1981,99 @@
         <a:xfrm>
           <a:off x="800100" y="25927050"/>
           <a:ext cx="9460318" cy="8946032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>136122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04DC9A5-CF6F-D20D-3E35-6EEEA123C171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="767443" y="29999215"/>
+          <a:ext cx="12064093" cy="3909836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>298080</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>14252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7718CF1E-CFBD-1216-1F20-D8C2F803811D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="778565" y="34878066"/>
+          <a:ext cx="7371428" cy="5257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,7 +2755,7 @@
   <dimension ref="A3:S233"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2695,7 +2832,7 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -4227,8 +4364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E2FDEF-A0B6-48E8-873B-66802E629548}">
   <dimension ref="B3:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4305,7 +4442,7 @@
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -4336,204 +4473,99 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="J32" s="5"/>
       <c r="K32" t="s">
         <v>8</v>
@@ -4546,1001 +4578,484 @@
       <c r="B33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="14"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="C41" s="14"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="14"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="C43" s="14"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="C44" s="14"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="C45" s="14"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="C46" s="14"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="C47" s="14"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="C48" s="14"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="C49" s="14"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="C50" s="14"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="C51" s="14"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="C52" s="14"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="C53" s="14"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="C54" s="14"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
@@ -5575,665 +5090,158 @@
     </row>
     <row r="114" spans="2:16">
       <c r="B114" s="4"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
       <c r="P114" s="5"/>
     </row>
     <row r="115" spans="2:16">
       <c r="B115" s="4"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
       <c r="P115" s="5"/>
     </row>
     <row r="116" spans="2:16">
       <c r="B116" s="4"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
       <c r="P116" s="5"/>
     </row>
     <row r="117" spans="2:16">
       <c r="B117" s="4"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
       <c r="P117" s="5"/>
     </row>
     <row r="118" spans="2:16">
       <c r="B118" s="4"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
       <c r="P118" s="5"/>
     </row>
     <row r="119" spans="2:16">
       <c r="B119" s="4"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
       <c r="P119" s="5"/>
     </row>
     <row r="120" spans="2:16">
       <c r="B120" s="4"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
       <c r="P120" s="5"/>
     </row>
     <row r="121" spans="2:16">
       <c r="B121" s="4"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-      <c r="O121" s="15"/>
       <c r="P121" s="5"/>
     </row>
     <row r="122" spans="2:16">
       <c r="B122" s="4"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
       <c r="P122" s="5"/>
     </row>
     <row r="123" spans="2:16">
       <c r="B123" s="4"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
       <c r="P123" s="5"/>
     </row>
     <row r="124" spans="2:16">
       <c r="B124" s="4"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
       <c r="P124" s="5"/>
     </row>
     <row r="125" spans="2:16">
       <c r="B125" s="4"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
       <c r="P125" s="5"/>
     </row>
     <row r="126" spans="2:16">
       <c r="B126" s="4"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
       <c r="P126" s="5"/>
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="4"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
       <c r="P127" s="5"/>
     </row>
     <row r="128" spans="2:16">
       <c r="B128" s="4"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
-      <c r="O128" s="15"/>
       <c r="P128" s="5"/>
     </row>
     <row r="129" spans="2:16">
       <c r="B129" s="4"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
       <c r="P129" s="5"/>
     </row>
     <row r="130" spans="2:16">
       <c r="B130" s="4"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
       <c r="P130" s="5"/>
     </row>
     <row r="131" spans="2:16">
       <c r="B131" s="4"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-      <c r="O131" s="15"/>
       <c r="P131" s="5"/>
     </row>
     <row r="132" spans="2:16">
       <c r="B132" s="4"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
       <c r="P132" s="5"/>
     </row>
     <row r="133" spans="2:16">
       <c r="B133" s="4"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
       <c r="P133" s="5"/>
     </row>
     <row r="134" spans="2:16">
       <c r="B134" s="4"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
       <c r="P134" s="5"/>
     </row>
     <row r="135" spans="2:16">
       <c r="B135" s="4"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-      <c r="O135" s="15"/>
       <c r="P135" s="5"/>
     </row>
     <row r="136" spans="2:16">
       <c r="B136" s="4"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
       <c r="P136" s="5"/>
     </row>
     <row r="137" spans="2:16">
       <c r="B137" s="4"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15"/>
-      <c r="O137" s="15"/>
       <c r="P137" s="5"/>
     </row>
     <row r="138" spans="2:16">
       <c r="B138" s="4"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
       <c r="P138" s="5"/>
     </row>
     <row r="139" spans="2:16">
       <c r="B139" s="4"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
       <c r="P139" s="5"/>
     </row>
     <row r="140" spans="2:16">
       <c r="B140" s="4"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="15"/>
-      <c r="O140" s="15"/>
       <c r="P140" s="5"/>
     </row>
     <row r="141" spans="2:16">
       <c r="B141" s="4"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
-      <c r="O141" s="15"/>
       <c r="P141" s="5"/>
     </row>
     <row r="142" spans="2:16">
       <c r="B142" s="4"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-      <c r="O142" s="15"/>
       <c r="P142" s="5"/>
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="4"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15"/>
-      <c r="O143" s="15"/>
       <c r="P143" s="5"/>
     </row>
     <row r="144" spans="2:16">
       <c r="B144" s="4"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
       <c r="P144" s="5"/>
     </row>
     <row r="145" spans="2:16">
       <c r="B145" s="4"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
       <c r="P145" s="5"/>
     </row>
     <row r="146" spans="2:16">
       <c r="B146" s="4"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
       <c r="P146" s="5"/>
     </row>
     <row r="147" spans="2:16">
       <c r="B147" s="4"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="15"/>
       <c r="P147" s="5"/>
     </row>
     <row r="148" spans="2:16">
       <c r="B148" s="4"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="15"/>
       <c r="P148" s="5"/>
     </row>
     <row r="149" spans="2:16">
       <c r="B149" s="4"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="15"/>
       <c r="P149" s="5"/>
     </row>
     <row r="150" spans="2:16">
       <c r="B150" s="4"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
       <c r="P150" s="5"/>
     </row>
     <row r="151" spans="2:16">
       <c r="B151" s="4"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="15"/>
-      <c r="O151" s="15"/>
       <c r="P151" s="5"/>
     </row>
     <row r="152" spans="2:16">
       <c r="B152" s="4"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
       <c r="P152" s="5"/>
     </row>
     <row r="153" spans="2:16">
@@ -6258,4 +5266,1922 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D7D151-5CA2-40DA-B132-E66744CA54D2}">
+  <dimension ref="B3:M174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="4"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="4"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="4"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="4"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="4"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="4"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="4"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="4"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="4"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="4"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="5"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="4"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="4"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="5"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="4"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="4"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="4"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="4"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="4"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="4"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169" s="4"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="5"/>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="4"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="5"/>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171" s="4"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172" s="4"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="2:13">
+      <c r="B173" s="4"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="5"/>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174" s="8"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EE5598-E702-4B3B-B12A-E1F858CA7BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE53A690-C9CB-48E5-9FA3-0B582DAF6361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="2535" windowWidth="23790" windowHeight="12825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="2535" windowWidth="23790" windowHeight="12825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
     <sheet name="Element &amp; Print" sheetId="2" r:id="rId2"/>
     <sheet name="Matrix" sheetId="3" r:id="rId3"/>
     <sheet name="Tổng dòng" sheetId="4" r:id="rId4"/>
+    <sheet name="Tổng cột" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="149">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -1305,6 +1306,30 @@
   </si>
   <si>
     <t>        System.out.println(sum);</t>
+  </si>
+  <si>
+    <t>        study005();</t>
+  </si>
+  <si>
+    <t>    // Tính tổng các phần tử trên cùng một cột</t>
+  </si>
+  <si>
+    <t>    public static void study005(){</t>
+  </si>
+  <si>
+    <t>        int column  = 2;</t>
+  </si>
+  <si>
+    <t>        int length  = arrMulti.length;</t>
+  </si>
+  <si>
+    <t>        for(int i = 0; i &lt; length; i++){</t>
+  </si>
+  <si>
+    <t>            System.out.println(arrMulti[i][column - 1]);</t>
+  </si>
+  <si>
+    <t>            sum += arrMulti[i][column - 1];</t>
   </si>
 </sst>
 </file>
@@ -2085,6 +2110,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164202</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>27818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE9897E-DB3F-6D5E-AADF-F55CB9593600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="33975675"/>
+          <a:ext cx="7184127" cy="6057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4364,7 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E2FDEF-A0B6-48E8-873B-66802E629548}">
   <dimension ref="B3:P153"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5272,8 +5346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D7D151-5CA2-40DA-B132-E66744CA54D2}">
   <dimension ref="B3:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5381,1439 +5455,679 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="14"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="C27" s="14"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="C28" s="14"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="C29" s="14"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="14"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="14"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="C32" s="14"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="C33" s="14"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="14"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="C36" s="14"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="14"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="14"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="C40" s="14"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="C41" s="14"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="14"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10">
@@ -6842,6 +6156,1941 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="4"/>
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="4"/>
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="4"/>
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="4"/>
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="4"/>
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="4"/>
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="4"/>
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="4"/>
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="4"/>
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="4"/>
+      <c r="M160" s="5"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="4"/>
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="4"/>
+      <c r="M162" s="5"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="4"/>
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="4"/>
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="4"/>
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="4"/>
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="4"/>
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="4"/>
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169" s="4"/>
+      <c r="M169" s="5"/>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="4"/>
+      <c r="M170" s="5"/>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171" s="4"/>
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172" s="4"/>
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="2:13">
+      <c r="B173" s="4"/>
+      <c r="M173" s="5"/>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174" s="8"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="9"/>
+      <c r="L174" s="9"/>
+      <c r="M174" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3540C68C-1B61-464C-A3A3-AEFF04F830E8}">
+  <dimension ref="B3:M176"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" s="8"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="10"/>
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" s="4"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="4"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="5"/>
     </row>
     <row r="151" spans="2:13">
       <c r="B151" s="4"/>
@@ -7166,18 +8415,46 @@
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="2:13">
-      <c r="B174" s="8"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
-      <c r="K174" s="9"/>
-      <c r="L174" s="9"/>
-      <c r="M174" s="10"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="5"/>
+    </row>
+    <row r="175" spans="2:13">
+      <c r="B175" s="4"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="5"/>
+    </row>
+    <row r="176" spans="2:13">
+      <c r="B176" s="8"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE53A690-C9CB-48E5-9FA3-0B582DAF6361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2C0090-10FD-476A-9C0D-6E7233C414E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="2535" windowWidth="23790" windowHeight="12825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30885" yWindow="2085" windowWidth="23790" windowHeight="12825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Matrix" sheetId="3" r:id="rId3"/>
     <sheet name="Tổng dòng" sheetId="4" r:id="rId4"/>
     <sheet name="Tổng cột" sheetId="5" r:id="rId5"/>
+    <sheet name="Tổng đường chéo" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="157">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -1330,6 +1331,43 @@
   </si>
   <si>
     <t>            sum += arrMulti[i][column - 1];</t>
+  </si>
+  <si>
+    <t>        study006();</t>
+  </si>
+  <si>
+    <t>    public static void study006(){</t>
+  </si>
+  <si>
+    <t>        // 3 7 3    00 01 02</t>
+  </si>
+  <si>
+    <t>        // 2 5 6    10 11 12</t>
+  </si>
+  <si>
+    <t>        // 0 8 9    20 21 22</t>
+  </si>
+  <si>
+    <t>        int[][] arrMulti    = {{3, 7, 3}, {2, 5, 6}, {0, 8, 9}};</t>
+  </si>
+  <si>
+    <t>            sum += arrMulti[i][i];</t>
+  </si>
+  <si>
+    <r>
+      <t>    // Tính tổng các phần tử trên đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng chéo của ma trận vuông</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2159,6 +2197,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164202</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>66051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664ED8CA-867C-9FF3-236B-16AED08E9B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="37595175"/>
+          <a:ext cx="7184127" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6274,8 +6361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3540C68C-1B61-464C-A3A3-AEFF04F830E8}">
   <dimension ref="B3:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="O146" sqref="O146"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6383,1658 +6470,794 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10">
       <c r="B142" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:13">
@@ -8066,6 +7289,1954 @@
     </row>
     <row r="149" spans="2:13">
       <c r="B149" s="4"/>
+      <c r="M149" s="5"/>
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="4"/>
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="4"/>
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" s="4"/>
+      <c r="M152" s="5"/>
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" s="4"/>
+      <c r="M153" s="5"/>
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" s="4"/>
+      <c r="M154" s="5"/>
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="4"/>
+      <c r="M155" s="5"/>
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" s="4"/>
+      <c r="M156" s="5"/>
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="4"/>
+      <c r="M157" s="5"/>
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="4"/>
+      <c r="M158" s="5"/>
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" s="4"/>
+      <c r="M159" s="5"/>
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="4"/>
+      <c r="M160" s="5"/>
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" s="4"/>
+      <c r="M161" s="5"/>
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="4"/>
+      <c r="M162" s="5"/>
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="4"/>
+      <c r="M163" s="5"/>
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="4"/>
+      <c r="M164" s="5"/>
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="4"/>
+      <c r="M165" s="5"/>
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" s="4"/>
+      <c r="M166" s="5"/>
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="4"/>
+      <c r="M167" s="5"/>
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" s="4"/>
+      <c r="M168" s="5"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="B169" s="4"/>
+      <c r="M169" s="5"/>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="B170" s="4"/>
+      <c r="M170" s="5"/>
+    </row>
+    <row r="171" spans="2:13">
+      <c r="B171" s="4"/>
+      <c r="M171" s="5"/>
+    </row>
+    <row r="172" spans="2:13">
+      <c r="B172" s="4"/>
+      <c r="M172" s="5"/>
+    </row>
+    <row r="173" spans="2:13">
+      <c r="B173" s="4"/>
+      <c r="M173" s="5"/>
+    </row>
+    <row r="174" spans="2:13">
+      <c r="B174" s="4"/>
+      <c r="M174" s="5"/>
+    </row>
+    <row r="175" spans="2:13">
+      <c r="B175" s="4"/>
+      <c r="M175" s="5"/>
+    </row>
+    <row r="176" spans="2:13">
+      <c r="B176" s="8"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="9"/>
+      <c r="L176" s="9"/>
+      <c r="M176" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9864FDFD-4DFE-475E-98E1-200EEE3A9069}">
+  <dimension ref="B3:M187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
@@ -8073,13 +9244,12 @@
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="5"/>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="B150" s="4"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -8087,13 +9257,12 @@
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="5"/>
-    </row>
-    <row r="151" spans="2:13">
-      <c r="B151" s="4"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
@@ -8101,13 +9270,12 @@
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="5"/>
-    </row>
-    <row r="152" spans="2:13">
-      <c r="B152" s="4"/>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
@@ -8115,13 +9283,12 @@
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="5"/>
-    </row>
-    <row r="153" spans="2:13">
-      <c r="B153" s="4"/>
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
@@ -8129,13 +9296,12 @@
       <c r="G153" s="15"/>
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="5"/>
-    </row>
-    <row r="154" spans="2:13">
-      <c r="B154" s="4"/>
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
@@ -8143,13 +9309,12 @@
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="5"/>
-    </row>
-    <row r="155" spans="2:13">
-      <c r="B155" s="4"/>
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
@@ -8157,13 +9322,12 @@
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
-      <c r="M155" s="5"/>
-    </row>
-    <row r="156" spans="2:13">
-      <c r="B156" s="4"/>
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -8171,13 +9335,12 @@
       <c r="G156" s="15"/>
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="5"/>
-    </row>
-    <row r="157" spans="2:13">
-      <c r="B157" s="4"/>
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -8185,13 +9348,12 @@
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="5"/>
-    </row>
-    <row r="158" spans="2:13">
-      <c r="B158" s="4"/>
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
@@ -8199,13 +9361,12 @@
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="5"/>
-    </row>
-    <row r="159" spans="2:13">
-      <c r="B159" s="4"/>
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
@@ -8213,13 +9374,12 @@
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="5"/>
-    </row>
-    <row r="160" spans="2:13">
-      <c r="B160" s="4"/>
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
@@ -8227,66 +9387,34 @@
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="5"/>
+      <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:13">
-      <c r="B161" s="4"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="5"/>
-    </row>
-    <row r="162" spans="2:13">
-      <c r="B162" s="4"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="5"/>
-    </row>
-    <row r="163" spans="2:13">
-      <c r="B163" s="4"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="5"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="10"/>
     </row>
     <row r="164" spans="2:13">
-      <c r="B164" s="4"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="5"/>
+      <c r="B164" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="3"/>
     </row>
     <row r="165" spans="2:13">
       <c r="B165" s="4"/>
@@ -8443,18 +9571,172 @@
       <c r="M175" s="5"/>
     </row>
     <row r="176" spans="2:13">
-      <c r="B176" s="8"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="9"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="9"/>
-      <c r="K176" s="9"/>
-      <c r="L176" s="9"/>
-      <c r="M176" s="10"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="5"/>
+    </row>
+    <row r="177" spans="2:13">
+      <c r="B177" s="4"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="5"/>
+    </row>
+    <row r="178" spans="2:13">
+      <c r="B178" s="4"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="5"/>
+    </row>
+    <row r="179" spans="2:13">
+      <c r="B179" s="4"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="5"/>
+    </row>
+    <row r="180" spans="2:13">
+      <c r="B180" s="4"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="5"/>
+    </row>
+    <row r="181" spans="2:13">
+      <c r="B181" s="4"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="5"/>
+    </row>
+    <row r="182" spans="2:13">
+      <c r="B182" s="4"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="5"/>
+    </row>
+    <row r="183" spans="2:13">
+      <c r="B183" s="4"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="5"/>
+    </row>
+    <row r="184" spans="2:13">
+      <c r="B184" s="4"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="5"/>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="B185" s="4"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="5"/>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="B186" s="4"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="5"/>
+    </row>
+    <row r="187" spans="2:13">
+      <c r="B187" s="8"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="9"/>
+      <c r="L187" s="9"/>
+      <c r="M187" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2C0090-10FD-476A-9C0D-6E7233C414E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DA9F8-140A-4B36-908D-8DAFA3EBF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="2085" windowWidth="23790" windowHeight="12825" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30885" yWindow="2085" windowWidth="23790" windowHeight="12825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Tổng dòng" sheetId="4" r:id="rId4"/>
     <sheet name="Tổng cột" sheetId="5" r:id="rId5"/>
     <sheet name="Tổng đường chéo" sheetId="6" r:id="rId6"/>
+    <sheet name="Max" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="171">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -1368,6 +1369,48 @@
       </rPr>
       <t>ờng chéo của ma trận vuông</t>
     </r>
+  </si>
+  <si>
+    <t>        study007();</t>
+  </si>
+  <si>
+    <t>    // Tìm phần tử lớn nhất trong ma trận</t>
+  </si>
+  <si>
+    <t>    public static void study007(){</t>
+  </si>
+  <si>
+    <t>        // 1  7 3</t>
+  </si>
+  <si>
+    <t>        // 2  1 6</t>
+  </si>
+  <si>
+    <t>        // 12 8 9</t>
+  </si>
+  <si>
+    <t>        int[][] arrMulti = { { 1, 37, 3 }, { 2,21, 6 }, { 12, 8, 9 } };</t>
+  </si>
+  <si>
+    <t>        int max = arrMulti[0][0];</t>
+  </si>
+  <si>
+    <t>                if(max &lt; arrMulti[i][j])    max =  arrMulti[i][j];</t>
+  </si>
+  <si>
+    <t>            Arrays.sort(arrMulti[i]);</t>
+  </si>
+  <si>
+    <t>            int length  = arrMulti[i].length;</t>
+  </si>
+  <si>
+    <t>            if(max &lt; arrMulti[i][length-1]) max =  arrMulti[i][length-1];</t>
+  </si>
+  <si>
+    <t>        System.out.println("Max:" + max);</t>
+  </si>
+  <si>
+    <t>    // Tính tổng các phần tử trên đường chéo của ma trận vuông</t>
   </si>
 </sst>
 </file>
@@ -2246,6 +2289,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>437217</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>11882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102FEAD6-9C62-59DF-119D-97502496031F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="854075" y="44443650"/>
+          <a:ext cx="7469842" cy="6546032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7420,8 +7512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9864FDFD-4DFE-475E-98E1-200EEE3A9069}">
   <dimension ref="B3:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7529,1864 +7621,901 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="4"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10">
       <c r="B142" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="2:10">
       <c r="B151" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="2:10">
       <c r="B156" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="2:10">
       <c r="B159" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:13">
@@ -9418,310 +8547,90 @@
     </row>
     <row r="165" spans="2:13">
       <c r="B165" s="4"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
       <c r="M165" s="5"/>
     </row>
     <row r="166" spans="2:13">
       <c r="B166" s="4"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
       <c r="M166" s="5"/>
     </row>
     <row r="167" spans="2:13">
       <c r="B167" s="4"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
       <c r="M167" s="5"/>
     </row>
     <row r="168" spans="2:13">
       <c r="B168" s="4"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
       <c r="M168" s="5"/>
     </row>
     <row r="169" spans="2:13">
       <c r="B169" s="4"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="15"/>
       <c r="M169" s="5"/>
     </row>
     <row r="170" spans="2:13">
       <c r="B170" s="4"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="15"/>
       <c r="M170" s="5"/>
     </row>
     <row r="171" spans="2:13">
       <c r="B171" s="4"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="15"/>
       <c r="M171" s="5"/>
     </row>
     <row r="172" spans="2:13">
       <c r="B172" s="4"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
       <c r="M172" s="5"/>
     </row>
     <row r="173" spans="2:13">
       <c r="B173" s="4"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="15"/>
       <c r="M173" s="5"/>
     </row>
     <row r="174" spans="2:13">
       <c r="B174" s="4"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="15"/>
       <c r="M174" s="5"/>
     </row>
     <row r="175" spans="2:13">
       <c r="B175" s="4"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="15"/>
       <c r="M175" s="5"/>
     </row>
     <row r="176" spans="2:13">
       <c r="B176" s="4"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="15"/>
       <c r="M176" s="5"/>
     </row>
     <row r="177" spans="2:13">
       <c r="B177" s="4"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="15"/>
       <c r="M177" s="5"/>
     </row>
     <row r="178" spans="2:13">
       <c r="B178" s="4"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="15"/>
       <c r="M178" s="5"/>
     </row>
     <row r="179" spans="2:13">
       <c r="B179" s="4"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="15"/>
       <c r="M179" s="5"/>
     </row>
     <row r="180" spans="2:13">
       <c r="B180" s="4"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
       <c r="M180" s="5"/>
     </row>
     <row r="181" spans="2:13">
       <c r="B181" s="4"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="15"/>
       <c r="M181" s="5"/>
     </row>
     <row r="182" spans="2:13">
       <c r="B182" s="4"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="15"/>
       <c r="M182" s="5"/>
     </row>
     <row r="183" spans="2:13">
       <c r="B183" s="4"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
       <c r="M183" s="5"/>
     </row>
     <row r="184" spans="2:13">
       <c r="B184" s="4"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="15"/>
       <c r="M184" s="5"/>
     </row>
     <row r="185" spans="2:13">
       <c r="B185" s="4"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="15"/>
       <c r="M185" s="5"/>
     </row>
     <row r="186" spans="2:13">
       <c r="B186" s="4"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
       <c r="M186" s="5"/>
     </row>
     <row r="187" spans="2:13">
@@ -9743,4 +8652,2821 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A92C1-7B97-4CCC-A93B-3977ADF22FFA}">
+  <dimension ref="B3:M224"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="S195" sqref="S195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="4"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="4"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="4"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="2:10">
+      <c r="B143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="2:10">
+      <c r="B145" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="2:10">
+      <c r="B146" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="2:10">
+      <c r="B147" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="2:10">
+      <c r="B148" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="2:10">
+      <c r="B149" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="2:10">
+      <c r="B150" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="2:10">
+      <c r="B151" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="2:10">
+      <c r="B152" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="2:10">
+      <c r="B153" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="2:10">
+      <c r="B154" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="2:10">
+      <c r="B155" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="2:10">
+      <c r="B156" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="2:10">
+      <c r="B157" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="2:10">
+      <c r="B158" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="2:10">
+      <c r="B159" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="2:10">
+      <c r="B160" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="2:10">
+      <c r="B161" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="2:10">
+      <c r="B162" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="2:10">
+      <c r="B163" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="2:10">
+      <c r="B164" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="2:10">
+      <c r="B165" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="2:10">
+      <c r="B166" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="2:10">
+      <c r="B167" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="2:10">
+      <c r="B168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="2:10">
+      <c r="B170" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="2:10">
+      <c r="B171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="2:10">
+      <c r="B172" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="2:10">
+      <c r="B173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="2:10">
+      <c r="B174" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="2:10">
+      <c r="B176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="2:10">
+      <c r="B177" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="2:10">
+      <c r="B178" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="2:10">
+      <c r="B179" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="2:10">
+      <c r="B180" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="2:10">
+      <c r="B181" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="2:10">
+      <c r="B182" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="2:10">
+      <c r="B183" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="2:10">
+      <c r="B184" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="2:10">
+      <c r="B185" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="2:10">
+      <c r="B186" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="2:10">
+      <c r="B187" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="2:10">
+      <c r="B188" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="2:10">
+      <c r="B189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="2:10">
+      <c r="B190" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="2:10">
+      <c r="B191" s="8"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="10"/>
+    </row>
+    <row r="194" spans="2:13">
+      <c r="B194" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" spans="2:13">
+      <c r="B195" s="4"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="5"/>
+    </row>
+    <row r="196" spans="2:13">
+      <c r="B196" s="4"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="5"/>
+    </row>
+    <row r="197" spans="2:13">
+      <c r="B197" s="4"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="5"/>
+    </row>
+    <row r="198" spans="2:13">
+      <c r="B198" s="4"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="5"/>
+    </row>
+    <row r="199" spans="2:13">
+      <c r="B199" s="4"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="5"/>
+    </row>
+    <row r="200" spans="2:13">
+      <c r="B200" s="4"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="5"/>
+    </row>
+    <row r="201" spans="2:13">
+      <c r="B201" s="4"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="5"/>
+    </row>
+    <row r="202" spans="2:13">
+      <c r="B202" s="4"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="15"/>
+      <c r="L202" s="15"/>
+      <c r="M202" s="5"/>
+    </row>
+    <row r="203" spans="2:13">
+      <c r="B203" s="4"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="15"/>
+      <c r="M203" s="5"/>
+    </row>
+    <row r="204" spans="2:13">
+      <c r="B204" s="4"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="15"/>
+      <c r="M204" s="5"/>
+    </row>
+    <row r="205" spans="2:13">
+      <c r="B205" s="4"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="15"/>
+      <c r="M205" s="5"/>
+    </row>
+    <row r="206" spans="2:13">
+      <c r="B206" s="4"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+      <c r="J206" s="15"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="5"/>
+    </row>
+    <row r="207" spans="2:13">
+      <c r="B207" s="4"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="15"/>
+      <c r="L207" s="15"/>
+      <c r="M207" s="5"/>
+    </row>
+    <row r="208" spans="2:13">
+      <c r="B208" s="4"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+      <c r="J208" s="15"/>
+      <c r="K208" s="15"/>
+      <c r="L208" s="15"/>
+      <c r="M208" s="5"/>
+    </row>
+    <row r="209" spans="2:13">
+      <c r="B209" s="4"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="15"/>
+      <c r="J209" s="15"/>
+      <c r="K209" s="15"/>
+      <c r="L209" s="15"/>
+      <c r="M209" s="5"/>
+    </row>
+    <row r="210" spans="2:13">
+      <c r="B210" s="4"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15"/>
+      <c r="L210" s="15"/>
+      <c r="M210" s="5"/>
+    </row>
+    <row r="211" spans="2:13">
+      <c r="B211" s="4"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="J211" s="15"/>
+      <c r="K211" s="15"/>
+      <c r="L211" s="15"/>
+      <c r="M211" s="5"/>
+    </row>
+    <row r="212" spans="2:13">
+      <c r="B212" s="4"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+      <c r="J212" s="15"/>
+      <c r="K212" s="15"/>
+      <c r="L212" s="15"/>
+      <c r="M212" s="5"/>
+    </row>
+    <row r="213" spans="2:13">
+      <c r="B213" s="4"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
+      <c r="J213" s="15"/>
+      <c r="K213" s="15"/>
+      <c r="L213" s="15"/>
+      <c r="M213" s="5"/>
+    </row>
+    <row r="214" spans="2:13">
+      <c r="B214" s="4"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="15"/>
+      <c r="L214" s="15"/>
+      <c r="M214" s="5"/>
+    </row>
+    <row r="215" spans="2:13">
+      <c r="B215" s="4"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="15"/>
+      <c r="L215" s="15"/>
+      <c r="M215" s="5"/>
+    </row>
+    <row r="216" spans="2:13">
+      <c r="B216" s="4"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
+      <c r="J216" s="15"/>
+      <c r="K216" s="15"/>
+      <c r="L216" s="15"/>
+      <c r="M216" s="5"/>
+    </row>
+    <row r="217" spans="2:13">
+      <c r="B217" s="4"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="15"/>
+      <c r="L217" s="15"/>
+      <c r="M217" s="5"/>
+    </row>
+    <row r="218" spans="2:13">
+      <c r="B218" s="4"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="15"/>
+      <c r="M218" s="5"/>
+    </row>
+    <row r="219" spans="2:13">
+      <c r="B219" s="4"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
+      <c r="I219" s="15"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="15"/>
+      <c r="L219" s="15"/>
+      <c r="M219" s="5"/>
+    </row>
+    <row r="220" spans="2:13">
+      <c r="B220" s="4"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+      <c r="I220" s="15"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="15"/>
+      <c r="L220" s="15"/>
+      <c r="M220" s="5"/>
+    </row>
+    <row r="221" spans="2:13">
+      <c r="B221" s="4"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
+      <c r="H221" s="15"/>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+      <c r="L221" s="15"/>
+      <c r="M221" s="5"/>
+    </row>
+    <row r="222" spans="2:13">
+      <c r="B222" s="4"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="15"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="15"/>
+      <c r="L222" s="15"/>
+      <c r="M222" s="5"/>
+    </row>
+    <row r="223" spans="2:13">
+      <c r="B223" s="4"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+      <c r="I223" s="15"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="15"/>
+      <c r="M223" s="5"/>
+    </row>
+    <row r="224" spans="2:13">
+      <c r="B224" s="8"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="9"/>
+      <c r="M224" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
+++ b/3.Ky-thuat-xu-ly-mang/4.Mang-da-chieu-va-cac-thao-tac-tren-mang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\3.Ky-thuat-xu-ly-mang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DA9F8-140A-4B36-908D-8DAFA3EBF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BC30F9-BEB0-42F9-AA70-40854662D09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="2085" windowWidth="23790" windowHeight="12825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30885" yWindow="2085" windowWidth="23790" windowHeight="12825" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Array multi" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Tổng cột" sheetId="5" r:id="rId5"/>
     <sheet name="Tổng đường chéo" sheetId="6" r:id="rId6"/>
     <sheet name="Max" sheetId="7" r:id="rId7"/>
+    <sheet name="ArrayExe" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="207">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="2"/>
@@ -1412,12 +1413,123 @@
   <si>
     <t>    // Tính tổng các phần tử trên đường chéo của ma trận vuông</t>
   </si>
+  <si>
+    <t>ArrayExe.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>java_training\src\ph3_array\ArrayExe.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>public class ArrayExe {</t>
+  </si>
+  <si>
+    <t>    // Sắp xếp ma trận tăng dần</t>
+  </si>
+  <si>
+    <t>        // 2 6 7 1  00 01 02 03</t>
+  </si>
+  <si>
+    <t>        // 7 8 1 3  10 11 12 13</t>
+  </si>
+  <si>
+    <t>        // 7 1 9 4  21 22 23 24</t>
+  </si>
+  <si>
+    <t>        // 1 4 3 1  31 32 33 34</t>
+  </si>
+  <si>
+    <t>        int[][] arrMulti    = {{2, 6, 7, 1}, {7, 8, 1, 3}, {7, 1, 9, 4}, {1, 4, 3, 1}};</t>
+  </si>
+  <si>
+    <t>        System.out.println("Input: " + Arrays.deepToString(arrMulti));</t>
+  </si>
+  <si>
+    <t>        // Chuyển sang mảng 1 chiều</t>
+  </si>
+  <si>
+    <t>        int rows    = arrMulti.length;</t>
+  </si>
+  <si>
+    <t>        int columns = arrMulti[0].length;</t>
+  </si>
+  <si>
+    <t>        int[] arrNumber     = new int[rows*columns];</t>
+  </si>
+  <si>
+    <t>        for (int i = 0; i &lt; rows*columns; i++) arrNumber[i] = arrMulti[i / rows][i % rows];</t>
+  </si>
+  <si>
+    <t>        // Sắp xếp mảng 1 chiều</t>
+  </si>
+  <si>
+    <t>        Arrays.sort(arrNumber);</t>
+  </si>
+  <si>
+    <t>        // Chuyển mảng 1 chiều thành mảng 2 chiều</t>
+  </si>
+  <si>
+    <t>        for (int i = 0; i &lt; rows*columns; i++) arrMulti[i / rows][i % rows] = arrNumber[i];</t>
+  </si>
+  <si>
+    <t>        System.out.println("Array: " + Arrays.toString(arrNumber));</t>
+  </si>
+  <si>
+    <t>        System.out.println("Output: " + Arrays.deepToString(arrMulti));</t>
+  </si>
+  <si>
+    <t>    // Tìm các phần  tử lớn nhất ở mỗi dòng và tính tổng các phần tử đó</t>
+  </si>
+  <si>
+    <t>        int sum = 0;</t>
+  </si>
+  <si>
+    <t>            System.out.printf("Phần tử lớn nhất ở dòng %d: %d %n", i+1, arrMulti[i][length-1]);</t>
+  </si>
+  <si>
+    <t>            sum += arrMulti[i][length-1];</t>
+  </si>
+  <si>
+    <t>        System.out.println("Tổng các phần tử lớn nhất: " + sum);</t>
+  </si>
+  <si>
+    <t>    // Xuất các phần tử nằm phía trên (phía dưới) đường chéo chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Nằm dưới đường chéo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("-------- Nằm dưới đường chéo -------- "); </t>
+  </si>
+  <si>
+    <t>        for(int i = 1; i &lt; length; i++){</t>
+  </si>
+  <si>
+    <t>            for(int j = 0; j &lt; i; j++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // Nằm trên đường chéo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("-------- Nằm trên đường chéo -------- "); </t>
+  </si>
+  <si>
+    <t>            for(int j = i + 1; j &lt; length; j++){</t>
+  </si>
+  <si>
+    <t>_____________________________________________________________________________</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,6 +1594,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1590,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1606,8 +1724,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2338,6 +2485,249 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107206</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>12429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BE1D23-2C67-16CF-D7AF-880740B0F979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="16811625"/>
+          <a:ext cx="5952381" cy="2171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4409A385-7976-976C-43A0-4B71E826B773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8039100" y="18030825"/>
+          <a:ext cx="304800" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BAEE5-B5D5-102A-CFB0-0590B776D389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8353425" y="18773775"/>
+          <a:ext cx="28575" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>418398</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>31560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C6B4EA-BED8-AC1D-19E2-4FD74C7F6DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="12449175"/>
+          <a:ext cx="5619048" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>69113</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>136376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7867F733-C527-934D-4061-F633440CFC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7972425" y="6715125"/>
+          <a:ext cx="5898413" cy="1193651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8658,8 +9048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7A92C1-7B97-4CCC-A93B-3977ADF22FFA}">
   <dimension ref="B3:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="S195" sqref="S195"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8767,2254 +9157,1094 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="2:10">
       <c r="B49" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="2:10">
       <c r="B56" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
       <c r="J57" s="5"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="2:10">
       <c r="B59" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
       <c r="J59" s="5"/>
     </row>
     <row r="60" spans="2:10">
       <c r="B60" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="4"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
       <c r="J65" s="5"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
       <c r="J69" s="5"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
       <c r="J71" s="5"/>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="2:10">
       <c r="B73" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
       <c r="J73" s="5"/>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="2:10">
       <c r="B75" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
       <c r="J75" s="5"/>
     </row>
     <row r="76" spans="2:10">
       <c r="B76" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="4"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
       <c r="J77" s="5"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
       <c r="J79" s="5"/>
     </row>
     <row r="80" spans="2:10">
       <c r="B80" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
       <c r="J81" s="5"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
       <c r="J83" s="5"/>
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
       <c r="J85" s="5"/>
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
       <c r="J87" s="5"/>
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
       <c r="J89" s="5"/>
     </row>
     <row r="90" spans="2:10">
       <c r="B90" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
       <c r="J91" s="5"/>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="2:10">
       <c r="B93" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
       <c r="J93" s="5"/>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="4"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="2:10">
       <c r="B95" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
       <c r="J97" s="5"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:10">
       <c r="B113" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:10">
       <c r="B114" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
       <c r="J114" s="5"/>
     </row>
     <row r="115" spans="2:10">
       <c r="B115" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
       <c r="J115" s="5"/>
     </row>
     <row r="116" spans="2:10">
       <c r="B116" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
       <c r="J116" s="5"/>
     </row>
     <row r="117" spans="2:10">
       <c r="B117" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
       <c r="J117" s="5"/>
     </row>
     <row r="118" spans="2:10">
       <c r="B118" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
       <c r="J118" s="5"/>
     </row>
     <row r="119" spans="2:10">
       <c r="B119" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
       <c r="J119" s="5"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
       <c r="J120" s="5"/>
     </row>
     <row r="121" spans="2:10">
       <c r="B121" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
       <c r="J121" s="5"/>
     </row>
     <row r="122" spans="2:10">
       <c r="B122" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
       <c r="J122" s="5"/>
     </row>
     <row r="123" spans="2:10">
       <c r="B123" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
       <c r="J123" s="5"/>
     </row>
     <row r="124" spans="2:10">
       <c r="B124" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
       <c r="J124" s="5"/>
     </row>
     <row r="125" spans="2:10">
       <c r="B125" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
       <c r="J125" s="5"/>
     </row>
     <row r="126" spans="2:10">
       <c r="B126" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
       <c r="J126" s="5"/>
     </row>
     <row r="127" spans="2:10">
       <c r="B127" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
       <c r="J127" s="5"/>
     </row>
     <row r="128" spans="2:10">
       <c r="B128" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
       <c r="J128" s="5"/>
     </row>
     <row r="129" spans="2:10">
       <c r="B129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
       <c r="J129" s="5"/>
     </row>
     <row r="130" spans="2:10">
       <c r="B130" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
       <c r="J130" s="5"/>
     </row>
     <row r="131" spans="2:10">
       <c r="B131" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
       <c r="J131" s="5"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
       <c r="J132" s="5"/>
     </row>
     <row r="133" spans="2:10">
       <c r="B133" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
       <c r="J133" s="5"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
       <c r="J134" s="5"/>
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
       <c r="J135" s="5"/>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
       <c r="J136" s="5"/>
     </row>
     <row r="137" spans="2:10">
       <c r="B137" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
       <c r="J137" s="5"/>
     </row>
     <row r="138" spans="2:10">
       <c r="B138" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
       <c r="J138" s="5"/>
     </row>
     <row r="139" spans="2:10">
       <c r="B139" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
       <c r="J139" s="5"/>
     </row>
     <row r="140" spans="2:10">
       <c r="B140" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
       <c r="J140" s="5"/>
     </row>
     <row r="141" spans="2:10">
       <c r="B141" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
       <c r="J141" s="5"/>
     </row>
     <row r="142" spans="2:10">
       <c r="B142" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
       <c r="J142" s="5"/>
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
       <c r="J143" s="5"/>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
       <c r="J144" s="5"/>
     </row>
     <row r="145" spans="2:10">
       <c r="B145" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
       <c r="J145" s="5"/>
     </row>
     <row r="146" spans="2:10">
       <c r="B146" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
       <c r="J146" s="5"/>
     </row>
     <row r="147" spans="2:10">
       <c r="B147" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
       <c r="J147" s="5"/>
     </row>
     <row r="148" spans="2:10">
       <c r="B148" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
       <c r="J148" s="5"/>
     </row>
     <row r="149" spans="2:10">
       <c r="B149" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
       <c r="J149" s="5"/>
     </row>
     <row r="150" spans="2:10">
       <c r="B150" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
       <c r="J150" s="5"/>
     </row>
     <row r="151" spans="2:10">
       <c r="B151" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
       <c r="J151" s="5"/>
     </row>
     <row r="152" spans="2:10">
       <c r="B152" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
       <c r="J152" s="5"/>
     </row>
     <row r="153" spans="2:10">
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
       <c r="J153" s="5"/>
     </row>
     <row r="154" spans="2:10">
       <c r="B154" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
       <c r="J154" s="5"/>
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
       <c r="J155" s="5"/>
     </row>
     <row r="156" spans="2:10">
       <c r="B156" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
       <c r="J156" s="5"/>
     </row>
     <row r="157" spans="2:10">
       <c r="B157" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
       <c r="J157" s="5"/>
     </row>
     <row r="158" spans="2:10">
       <c r="B158" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
       <c r="J158" s="5"/>
     </row>
     <row r="159" spans="2:10">
       <c r="B159" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
       <c r="J159" s="5"/>
     </row>
     <row r="160" spans="2:10">
       <c r="B160" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
       <c r="J160" s="5"/>
     </row>
     <row r="161" spans="2:10">
       <c r="B161" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
       <c r="J161" s="5"/>
     </row>
     <row r="162" spans="2:10">
       <c r="B162" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
       <c r="J162" s="5"/>
     </row>
     <row r="163" spans="2:10">
       <c r="B163" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
       <c r="J163" s="5"/>
     </row>
     <row r="164" spans="2:10">
       <c r="B164" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
       <c r="J164" s="5"/>
     </row>
     <row r="165" spans="2:10">
       <c r="B165" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
       <c r="J165" s="5"/>
     </row>
     <row r="166" spans="2:10">
       <c r="B166" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
       <c r="J166" s="5"/>
     </row>
     <row r="167" spans="2:10">
       <c r="B167" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
       <c r="J167" s="5"/>
     </row>
     <row r="168" spans="2:10">
       <c r="B168" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
       <c r="J168" s="5"/>
     </row>
     <row r="169" spans="2:10">
       <c r="B169" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
       <c r="J169" s="5"/>
     </row>
     <row r="170" spans="2:10">
       <c r="B170" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="2:10">
       <c r="B171" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
       <c r="J171" s="5"/>
     </row>
     <row r="172" spans="2:10">
       <c r="B172" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
       <c r="J172" s="5"/>
     </row>
     <row r="173" spans="2:10">
       <c r="B173" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
       <c r="J173" s="5"/>
     </row>
     <row r="174" spans="2:10">
       <c r="B174" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
       <c r="J174" s="5"/>
     </row>
     <row r="175" spans="2:10">
       <c r="B175" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
       <c r="J175" s="5"/>
     </row>
     <row r="176" spans="2:10">
       <c r="B176" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
       <c r="J176" s="5"/>
     </row>
     <row r="177" spans="2:10">
       <c r="B177" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="2:10">
       <c r="B178" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="2:10">
       <c r="B179" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="2:10">
       <c r="B180" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="2:10">
       <c r="B181" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
       <c r="J181" s="5"/>
     </row>
     <row r="182" spans="2:10">
       <c r="B182" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
       <c r="J182" s="5"/>
     </row>
     <row r="183" spans="2:10">
       <c r="B183" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
       <c r="J183" s="5"/>
     </row>
     <row r="184" spans="2:10">
       <c r="B184" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
       <c r="J184" s="5"/>
     </row>
     <row r="185" spans="2:10">
       <c r="B185" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
       <c r="J185" s="5"/>
     </row>
     <row r="186" spans="2:10">
       <c r="B186" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
       <c r="J186" s="5"/>
     </row>
     <row r="187" spans="2:10">
       <c r="B187" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
       <c r="J187" s="5"/>
     </row>
     <row r="188" spans="2:10">
       <c r="B188" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
       <c r="J188" s="5"/>
     </row>
     <row r="189" spans="2:10">
       <c r="B189" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
       <c r="J189" s="5"/>
     </row>
     <row r="190" spans="2:10">
       <c r="B190" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="15"/>
       <c r="J190" s="5"/>
     </row>
     <row r="191" spans="2:10">
@@ -11046,408 +10276,118 @@
     </row>
     <row r="195" spans="2:13">
       <c r="B195" s="4"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="15"/>
       <c r="M195" s="5"/>
     </row>
     <row r="196" spans="2:13">
       <c r="B196" s="4"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="15"/>
       <c r="M196" s="5"/>
     </row>
     <row r="197" spans="2:13">
       <c r="B197" s="4"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="15"/>
       <c r="M197" s="5"/>
     </row>
     <row r="198" spans="2:13">
       <c r="B198" s="4"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="15"/>
       <c r="M198" s="5"/>
     </row>
     <row r="199" spans="2:13">
       <c r="B199" s="4"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="15"/>
       <c r="M199" s="5"/>
     </row>
     <row r="200" spans="2:13">
       <c r="B200" s="4"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="15"/>
       <c r="M200" s="5"/>
     </row>
     <row r="201" spans="2:13">
       <c r="B201" s="4"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="15"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="15"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="15"/>
       <c r="M201" s="5"/>
     </row>
     <row r="202" spans="2:13">
       <c r="B202" s="4"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
-      <c r="I202" s="15"/>
-      <c r="J202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="15"/>
       <c r="M202" s="5"/>
     </row>
     <row r="203" spans="2:13">
       <c r="B203" s="4"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
-      <c r="I203" s="15"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="15"/>
-      <c r="L203" s="15"/>
       <c r="M203" s="5"/>
     </row>
     <row r="204" spans="2:13">
       <c r="B204" s="4"/>
-      <c r="C204" s="15"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
-      <c r="I204" s="15"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="15"/>
       <c r="M204" s="5"/>
     </row>
     <row r="205" spans="2:13">
       <c r="B205" s="4"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
-      <c r="I205" s="15"/>
-      <c r="J205" s="15"/>
-      <c r="K205" s="15"/>
-      <c r="L205" s="15"/>
       <c r="M205" s="5"/>
     </row>
     <row r="206" spans="2:13">
       <c r="B206" s="4"/>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="15"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
-      <c r="I206" s="15"/>
-      <c r="J206" s="15"/>
-      <c r="K206" s="15"/>
-      <c r="L206" s="15"/>
       <c r="M206" s="5"/>
     </row>
     <row r="207" spans="2:13">
       <c r="B207" s="4"/>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
-      <c r="I207" s="15"/>
-      <c r="J207" s="15"/>
-      <c r="K207" s="15"/>
-      <c r="L207" s="15"/>
       <c r="M207" s="5"/>
     </row>
     <row r="208" spans="2:13">
       <c r="B208" s="4"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
-      <c r="I208" s="15"/>
-      <c r="J208" s="15"/>
-      <c r="K208" s="15"/>
-      <c r="L208" s="15"/>
       <c r="M208" s="5"/>
     </row>
     <row r="209" spans="2:13">
       <c r="B209" s="4"/>
-      <c r="C209" s="15"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
-      <c r="I209" s="15"/>
-      <c r="J209" s="15"/>
-      <c r="K209" s="15"/>
-      <c r="L209" s="15"/>
       <c r="M209" s="5"/>
     </row>
     <row r="210" spans="2:13">
       <c r="B210" s="4"/>
-      <c r="C210" s="15"/>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="15"/>
-      <c r="J210" s="15"/>
-      <c r="K210" s="15"/>
-      <c r="L210" s="15"/>
       <c r="M210" s="5"/>
     </row>
     <row r="211" spans="2:13">
       <c r="B211" s="4"/>
-      <c r="C211" s="15"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="15"/>
-      <c r="J211" s="15"/>
-      <c r="K211" s="15"/>
-      <c r="L211" s="15"/>
       <c r="M211" s="5"/>
     </row>
     <row r="212" spans="2:13">
       <c r="B212" s="4"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="15"/>
-      <c r="J212" s="15"/>
-      <c r="K212" s="15"/>
-      <c r="L212" s="15"/>
       <c r="M212" s="5"/>
     </row>
     <row r="213" spans="2:13">
       <c r="B213" s="4"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
-      <c r="I213" s="15"/>
-      <c r="J213" s="15"/>
-      <c r="K213" s="15"/>
-      <c r="L213" s="15"/>
       <c r="M213" s="5"/>
     </row>
     <row r="214" spans="2:13">
       <c r="B214" s="4"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="15"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="15"/>
       <c r="M214" s="5"/>
     </row>
     <row r="215" spans="2:13">
       <c r="B215" s="4"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
-      <c r="I215" s="15"/>
-      <c r="J215" s="15"/>
-      <c r="K215" s="15"/>
-      <c r="L215" s="15"/>
       <c r="M215" s="5"/>
     </row>
     <row r="216" spans="2:13">
       <c r="B216" s="4"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
-      <c r="I216" s="15"/>
-      <c r="J216" s="15"/>
-      <c r="K216" s="15"/>
-      <c r="L216" s="15"/>
       <c r="M216" s="5"/>
     </row>
     <row r="217" spans="2:13">
       <c r="B217" s="4"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
-      <c r="I217" s="15"/>
-      <c r="J217" s="15"/>
-      <c r="K217" s="15"/>
-      <c r="L217" s="15"/>
       <c r="M217" s="5"/>
     </row>
     <row r="218" spans="2:13">
       <c r="B218" s="4"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
-      <c r="I218" s="15"/>
-      <c r="J218" s="15"/>
-      <c r="K218" s="15"/>
-      <c r="L218" s="15"/>
       <c r="M218" s="5"/>
     </row>
     <row r="219" spans="2:13">
       <c r="B219" s="4"/>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
-      <c r="I219" s="15"/>
-      <c r="J219" s="15"/>
-      <c r="K219" s="15"/>
-      <c r="L219" s="15"/>
       <c r="M219" s="5"/>
     </row>
     <row r="220" spans="2:13">
       <c r="B220" s="4"/>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
-      <c r="I220" s="15"/>
-      <c r="J220" s="15"/>
-      <c r="K220" s="15"/>
-      <c r="L220" s="15"/>
       <c r="M220" s="5"/>
     </row>
     <row r="221" spans="2:13">
       <c r="B221" s="4"/>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
-      <c r="K221" s="15"/>
-      <c r="L221" s="15"/>
       <c r="M221" s="5"/>
     </row>
     <row r="222" spans="2:13">
       <c r="B222" s="4"/>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
-      <c r="I222" s="15"/>
-      <c r="J222" s="15"/>
-      <c r="K222" s="15"/>
-      <c r="L222" s="15"/>
       <c r="M222" s="5"/>
     </row>
     <row r="223" spans="2:13">
       <c r="B223" s="4"/>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
-      <c r="I223" s="15"/>
-      <c r="J223" s="15"/>
-      <c r="K223" s="15"/>
-      <c r="L223" s="15"/>
       <c r="M223" s="5"/>
     </row>
     <row r="224" spans="2:13">
@@ -11469,4 +10409,710 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525CC24C-71F0-4961-98E0-57E2209E55D8}">
+  <dimension ref="B3:P101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="E11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4"/>
+      <c r="E12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="4"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="4"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="4"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="M29" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="M54" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K72" s="5"/>
+      <c r="L72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="M73" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" s="5"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K79" s="5"/>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="2:16">
+      <c r="B81" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="2:16">
+      <c r="B82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="2:16">
+      <c r="B83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K83" s="5"/>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="2:16">
+      <c r="B85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K86" s="5"/>
+      <c r="M86" s="17">
+        <v>7</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="2:16">
+      <c r="B87" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K87" s="5"/>
+      <c r="M87" s="18">
+        <v>7</v>
+      </c>
+      <c r="N87" s="16">
+        <v>1</v>
+      </c>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="2:16">
+      <c r="B88" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="M88" s="19">
+        <v>1</v>
+      </c>
+      <c r="N88" s="20">
+        <v>4</v>
+      </c>
+      <c r="O88" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16">
+      <c r="B89" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="2:16">
+      <c r="B90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="M93" s="22">
+        <v>6</v>
+      </c>
+      <c r="N93" s="23">
+        <v>7</v>
+      </c>
+      <c r="O93" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="16">
+        <v>1</v>
+      </c>
+      <c r="O94" s="25">
+        <v>3</v>
+      </c>
+      <c r="P94" s="16"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K95" s="5"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="21">
+        <v>4</v>
+      </c>
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K98" s="5"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="5"/>
+    </row>
+    <row r="100" spans="2:16">
+      <c r="B100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K100" s="5"/>
+    </row>
+    <row r="101" spans="2:16">
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>